--- a/data/trans_camb/P10_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_1-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 4,34</t>
+          <t>-4,42; 4,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,11</t>
+          <t>-2,92; 4,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,86</t>
+          <t>-2,21; 3,6</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,1</t>
+          <t>-5,09; 4,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 6,21</t>
+          <t>-3,44; 6,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 4,61</t>
+          <t>-2,57; 4,3</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 5,52</t>
+          <t>-4,3; 6,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 6,82</t>
+          <t>-1,04; 7,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,91</t>
+          <t>-1,16; 5,27</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,68</t>
+          <t>-5,05; 7,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,45</t>
+          <t>-1,17; 9,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,84</t>
+          <t>-1,35; 6,41</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>5,59</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 13,93</t>
+          <t>-3,49; 17,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 13,12</t>
+          <t>-4,59; 12,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 11,26</t>
+          <t>-1,43; 11,77</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 18,47</t>
+          <t>-3,53; 23,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 17,28</t>
+          <t>-5,39; 16,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 14,79</t>
+          <t>-1,08; 15,35</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,14</t>
+          <t>-1,65; 4,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,01</t>
+          <t>-0,27; 4,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,75</t>
+          <t>-0,2; 3,99</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,17%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,95</t>
+          <t>-1,91; 5,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 6,02</t>
+          <t>-0,24; 6,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,51</t>
+          <t>-0,23; 4,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_1-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.5005447243862982</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.192765758556469</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8605643543655561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 4,07</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 4,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 3,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.907393057322425</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.022305139856968</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.090914558893485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,06%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.517045249031144</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.854192956728617</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.824000110353558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 4,85</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 6,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 4,3</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.005796116734190608</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.01427382615485125</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01013628497799981</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.04421991243327471</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.03483211451755741</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.02441477897726254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 6,44</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 7,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 5,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.05437602780500824</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.05938387743316233</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.04596044046178858</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.378202922997041</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.754957924468149</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.072019018763938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 7,77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 9,07</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 6,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.893527654064889</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.461165415044099</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.474546575501534</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,82</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.253356161243481</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.162662117861028</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.175642358424039</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 17,04</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 12,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 11,77</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.01627692155055189</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.03296836469647348</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.02463365054080932</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,49%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,94%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.04601532404636586</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.01712440416292012</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.01706038060142511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 23,16</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 16,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 15,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.07575525762358984</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.08782351226569143</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.06273294543456272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.468537975950837</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>3.942780244455657</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>4.209097891228753</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 4,39</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 4,98</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 3,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.502845307616386</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.569037105681414</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.489706922583176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15.26686721586978</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.37325876770026</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.80839363560045</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 5,29</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 6,17</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 4,84</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.05564887787022776</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.04879278318581733</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.05225486928819854</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1023689462352672</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.0652564857269467</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.04197783078894136</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2022772431206319</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1607930904980695</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.140577719414068</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.342517797088949</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.108315865308708</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.734265781903666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.619095026949748</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.61879943807085</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.4406421329344456</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.557301544054223</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.849810139563929</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.837356591117396</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.01580586587369901</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.02532539697248853</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.02062785015013205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.01886079354631209</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.007365454256956026</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.00520357262997018</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.05462247892377724</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.058780964672452</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.04615643343717257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
